--- a/data/trans_orig/P05A03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>228650</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>215928</v>
+        <v>215705</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>239241</v>
+        <v>238715</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.856388602801219</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8087421692653127</v>
+        <v>0.8079057123217225</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8960574061881739</v>
+        <v>0.8940885771833145</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>199</v>
@@ -765,19 +765,19 @@
         <v>210621</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>197118</v>
+        <v>195650</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>222551</v>
+        <v>222017</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8277742006347598</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7747027903879633</v>
+        <v>0.7689341449656713</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8746612780745826</v>
+        <v>0.8725588994354607</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>426</v>
@@ -786,19 +786,19 @@
         <v>439271</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>420017</v>
+        <v>420681</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>454685</v>
+        <v>455427</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8424257480001996</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8055004566172353</v>
+        <v>0.8067739653469221</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8719867123691472</v>
+        <v>0.8734096959939192</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>35864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25121</v>
+        <v>26204</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47748</v>
+        <v>47552</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1343249145976584</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09408708957773229</v>
+        <v>0.09814619867215069</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1788347308174711</v>
+        <v>0.1781022659713872</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -836,19 +836,19 @@
         <v>38550</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27682</v>
+        <v>28004</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51705</v>
+        <v>52498</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1515088884207536</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1087964570494167</v>
+        <v>0.1100609001921439</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2032096943299512</v>
+        <v>0.2063252255555761</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>71</v>
@@ -857,19 +857,19 @@
         <v>74414</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>59824</v>
+        <v>59977</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>91958</v>
+        <v>92672</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1427101092279919</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1147294603838813</v>
+        <v>0.1150226167955087</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1763551152122029</v>
+        <v>0.1777254844632615</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9887</v>
+        <v>9352</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.009286482601122602</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03703260844087052</v>
+        <v>0.03502539870209465</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -907,19 +907,19 @@
         <v>5271</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2065</v>
+        <v>2095</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11537</v>
+        <v>11628</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02071691094448662</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00811479384867971</v>
+        <v>0.008234767869400271</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04534197074161868</v>
+        <v>0.04570059714995486</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -928,19 +928,19 @@
         <v>7751</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2867</v>
+        <v>3178</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14629</v>
+        <v>15337</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01486414277180851</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005498079337824306</v>
+        <v>0.006095079552521947</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02805565464475807</v>
+        <v>0.02941301471032333</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>335878</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>312004</v>
+        <v>314381</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>353223</v>
+        <v>355446</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6852075613737428</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6365031861810713</v>
+        <v>0.6413514684569751</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7205907258400409</v>
+        <v>0.7251262196900951</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>347</v>
@@ -1053,19 +1053,19 @@
         <v>347425</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>325508</v>
+        <v>326673</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>366782</v>
+        <v>368963</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6952007757675411</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6513450902189889</v>
+        <v>0.6536761984595952</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7339346372008305</v>
+        <v>0.7382991128156785</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>663</v>
@@ -1074,19 +1074,19 @@
         <v>683304</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>654067</v>
+        <v>651620</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>710716</v>
+        <v>711137</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6902524326206889</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6607179989656109</v>
+        <v>0.6582462279061784</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7179439562746153</v>
+        <v>0.7183685722401192</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>133988</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>114845</v>
+        <v>113492</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>155238</v>
+        <v>153955</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2733415448885452</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2342890277476814</v>
+        <v>0.2315294210911789</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3166923804834463</v>
+        <v>0.3140760027849437</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>125</v>
@@ -1124,19 +1124,19 @@
         <v>126857</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>108312</v>
+        <v>107159</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>146474</v>
+        <v>146388</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2538415887575854</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2167339506143534</v>
+        <v>0.21442747876977</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2930954531539917</v>
+        <v>0.2929243430900699</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>254</v>
@@ -1145,19 +1145,19 @@
         <v>260845</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>235278</v>
+        <v>234786</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>288266</v>
+        <v>291131</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.26349738823132</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2376705684747922</v>
+        <v>0.237173421925269</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2911973581497682</v>
+        <v>0.2940920539156211</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>20319</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12461</v>
+        <v>12746</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31471</v>
+        <v>32184</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04145089373771201</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02542190180770448</v>
+        <v>0.0260027199600596</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06420310399123499</v>
+        <v>0.06565714088077522</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -1195,19 +1195,19 @@
         <v>25466</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15723</v>
+        <v>16861</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36608</v>
+        <v>38133</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05095763547487336</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03146234028559025</v>
+        <v>0.03373863289215021</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07325362675980199</v>
+        <v>0.07630472604430487</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -1216,19 +1216,19 @@
         <v>45785</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33127</v>
+        <v>33741</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60456</v>
+        <v>61515</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04625017914799109</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03346363300656182</v>
+        <v>0.03408396501209962</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06107074023435073</v>
+        <v>0.06214101097698836</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>313217</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>306785</v>
+        <v>307094</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>316838</v>
+        <v>316904</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9823461235243519</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9621735552942287</v>
+        <v>0.9631426117536062</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9937036167591274</v>
+        <v>0.9939105629110462</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>329</v>
@@ -1341,19 +1341,19 @@
         <v>329389</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>323285</v>
+        <v>321734</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>333367</v>
+        <v>333261</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9820421429577103</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9638451889800003</v>
+        <v>0.9592215393778551</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9939034480726676</v>
+        <v>0.9935869721364807</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>633</v>
@@ -1362,19 +1362,19 @@
         <v>642606</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>634939</v>
+        <v>635208</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>647596</v>
+        <v>647801</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.982190284782002</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9704716901742327</v>
+        <v>0.970882571976415</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9898173898637119</v>
+        <v>0.990130786305128</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>4726</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1820</v>
+        <v>1774</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10715</v>
+        <v>10651</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01482319157553305</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005707024095158347</v>
+        <v>0.00556387826511843</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03360692199797806</v>
+        <v>0.03340363939734475</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1412,19 +1412,19 @@
         <v>5011</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1957</v>
+        <v>1949</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11376</v>
+        <v>12091</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01494024868459979</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00583422433741249</v>
+        <v>0.005810893650502131</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03391561115505475</v>
+        <v>0.03604727163295401</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1433,19 +1433,19 @@
         <v>9737</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4817</v>
+        <v>4980</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17352</v>
+        <v>17104</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01488320209811883</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00736284644156143</v>
+        <v>0.007612371422461434</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02652095792692826</v>
+        <v>0.02614192685967158</v>
       </c>
     </row>
     <row r="14">
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4513</v>
+        <v>4489</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002830684900115006</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0141548965167679</v>
+        <v>0.01407805248471555</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5036</v>
+        <v>4589</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003017608357689942</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01501544807331774</v>
+        <v>0.01368194927487675</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7465</v>
+        <v>7459</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002926513119879225</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01141040600091608</v>
+        <v>0.01140060703266793</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>307930</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>292546</v>
+        <v>293975</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>320014</v>
+        <v>319582</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8670657977862809</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8237481408114069</v>
+        <v>0.8277731781162322</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9010932294249238</v>
+        <v>0.8998747158081704</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>342</v>
@@ -1629,19 +1629,19 @@
         <v>327899</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>313155</v>
+        <v>313259</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>338883</v>
+        <v>338920</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8827387581387441</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8430472224826816</v>
+        <v>0.8433264621033061</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9123105497162086</v>
+        <v>0.9124088508287579</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>655</v>
@@ -1650,19 +1650,19 @@
         <v>635828</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>617561</v>
+        <v>615822</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>652787</v>
+        <v>653814</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8750782488569585</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8499365976400401</v>
+        <v>0.8475445100080581</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8984179666615015</v>
+        <v>0.8998312657493596</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>35643</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25200</v>
+        <v>25236</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>48893</v>
+        <v>47782</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1003623239916886</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07095919434572139</v>
+        <v>0.07105860762512564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1376729058656845</v>
+        <v>0.1345455105621365</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -1700,19 +1700,19 @@
         <v>36023</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26096</v>
+        <v>25191</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>49001</v>
+        <v>48646</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09697731265569361</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07025263315784427</v>
+        <v>0.06781725709014767</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.131915911555878</v>
+        <v>0.1309611009795809</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>69</v>
@@ -1721,19 +1721,19 @@
         <v>71665</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>56278</v>
+        <v>57564</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>88747</v>
+        <v>92138</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09863181251884573</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07745388485118419</v>
+        <v>0.07922368306794519</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.122141273286233</v>
+        <v>0.1268071106569879</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>11568</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6137</v>
+        <v>5666</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20631</v>
+        <v>21225</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03257187822203051</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01728077585481494</v>
+        <v>0.01595321216132006</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05809191476860491</v>
+        <v>0.05976456763847902</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -1771,19 +1771,19 @@
         <v>7535</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2975</v>
+        <v>3178</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15311</v>
+        <v>15819</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02028392920556227</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008009392300432133</v>
+        <v>0.008554178820619762</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04121961795357704</v>
+        <v>0.04258674542685859</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -1792,19 +1792,19 @@
         <v>19102</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10978</v>
+        <v>11839</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29903</v>
+        <v>31305</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02628993862419579</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01510898152803122</v>
+        <v>0.01629344544215347</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04115452103731067</v>
+        <v>0.04308386946463793</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>144734</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>131367</v>
+        <v>131749</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>156339</v>
+        <v>157347</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7203833295433494</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6538495800856495</v>
+        <v>0.6557524912813306</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7781440519206364</v>
+        <v>0.783161504047802</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>136</v>
@@ -1917,19 +1917,19 @@
         <v>142464</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>128341</v>
+        <v>127260</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>155382</v>
+        <v>154805</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.689317478573559</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6209851297034199</v>
+        <v>0.6157517977610164</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7518221627829209</v>
+        <v>0.7490301934794004</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>284</v>
@@ -1938,19 +1938,19 @@
         <v>287198</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>267875</v>
+        <v>266804</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>303520</v>
+        <v>303283</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7046308840719353</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6572215032240221</v>
+        <v>0.6545950836975649</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7446754810398593</v>
+        <v>0.7440934772872527</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>37973</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>27648</v>
+        <v>28120</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50497</v>
+        <v>50833</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.189003697732909</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1376103418166072</v>
+        <v>0.1399585898331956</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2513363234030999</v>
+        <v>0.2530084180917128</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>45</v>
@@ -1988,19 +1988,19 @@
         <v>48173</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>37372</v>
+        <v>36975</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>62611</v>
+        <v>63809</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.233084718951493</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1808264551323857</v>
+        <v>0.1789050504010392</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3029467063254269</v>
+        <v>0.3087420840741386</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>83</v>
@@ -2009,19 +2009,19 @@
         <v>86146</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>71262</v>
+        <v>71029</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>105283</v>
+        <v>106210</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2113556971597149</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.174839405710643</v>
+        <v>0.1742672363373204</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2583076797111126</v>
+        <v>0.2605833341980206</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>18205</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11146</v>
+        <v>11558</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28224</v>
+        <v>28336</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09061297272374165</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05547706426741991</v>
+        <v>0.0575273522824389</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1404807069585904</v>
+        <v>0.1410386159387644</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -2059,19 +2059,19 @@
         <v>16037</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9108</v>
+        <v>9332</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25705</v>
+        <v>25290</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07759780247494803</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04407163830813094</v>
+        <v>0.04515404399700584</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1243735458077838</v>
+        <v>0.1223674677301332</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>34</v>
@@ -2080,19 +2080,19 @@
         <v>34243</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24894</v>
+        <v>24235</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47226</v>
+        <v>46109</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08401341876834985</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06107697514321758</v>
+        <v>0.05945963530657613</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.115867798503779</v>
+        <v>0.1131271294339231</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>249993</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>237778</v>
+        <v>238554</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>257775</v>
+        <v>257014</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9231270290084577</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8780214378082453</v>
+        <v>0.8808879532394875</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9518637238074528</v>
+        <v>0.9490539351770165</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>241</v>
@@ -2205,19 +2205,19 @@
         <v>247942</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>235404</v>
+        <v>236198</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>256827</v>
+        <v>257388</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8914162105828324</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8463375429918922</v>
+        <v>0.8491943890196402</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9233595669055008</v>
+        <v>0.9253776812575875</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>488</v>
@@ -2226,19 +2226,19 @@
         <v>497935</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>482700</v>
+        <v>481585</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>510108</v>
+        <v>509922</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9070598216491147</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.879306758553791</v>
+        <v>0.877275397425103</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9292355281636094</v>
+        <v>0.9288955691561008</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>20818</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13036</v>
+        <v>13797</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33033</v>
+        <v>32257</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07687297099154231</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04813627619254703</v>
+        <v>0.05094606482298349</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1219785621917544</v>
+        <v>0.1191120467605123</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -2276,19 +2276,19 @@
         <v>29179</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20167</v>
+        <v>19912</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41510</v>
+        <v>40701</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1049046134522887</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07250432959105554</v>
+        <v>0.07158720260329615</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1492383403890887</v>
+        <v>0.146331746586892</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -2297,19 +2297,19 @@
         <v>49997</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>38372</v>
+        <v>38060</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>65541</v>
+        <v>66025</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09107601696766937</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06990018735105584</v>
+        <v>0.06933252948923876</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1193917892990423</v>
+        <v>0.1202740919502858</v>
       </c>
     </row>
     <row r="26">
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5980</v>
+        <v>5811</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.003679175964878984</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02149983432248339</v>
+        <v>0.02089236172967109</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5142</v>
+        <v>5090</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.001864161383215878</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.009366912372853833</v>
+        <v>0.009272735929014264</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>557881</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>541978</v>
+        <v>542773</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>570433</v>
+        <v>569612</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9111152873074365</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8851423255147749</v>
+        <v>0.8864412977450441</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9316147982200357</v>
+        <v>0.9302732474697694</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>579</v>
@@ -2485,19 +2485,19 @@
         <v>596703</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>582597</v>
+        <v>582903</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>607653</v>
+        <v>607729</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9363877596905007</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9142518516238138</v>
+        <v>0.9147325926187448</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9535719000638941</v>
+        <v>0.9536901182372155</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1119</v>
@@ -2506,19 +2506,19 @@
         <v>1154584</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1136801</v>
+        <v>1133535</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1173617</v>
+        <v>1172476</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9240036620944525</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9097720793374787</v>
+        <v>0.9071585032639311</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9392356849103444</v>
+        <v>0.9383221367431175</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>45755</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>34496</v>
+        <v>34372</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>60794</v>
+        <v>60016</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07472572800794162</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05633735725612282</v>
+        <v>0.05613533529441261</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09928764122484708</v>
+        <v>0.09801637072266164</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>30</v>
@@ -2556,19 +2556,19 @@
         <v>29098</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19344</v>
+        <v>20049</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>40753</v>
+        <v>41130</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04566279820903232</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0303563445258474</v>
+        <v>0.03146152332304819</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06395294117124738</v>
+        <v>0.06454332443187447</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>76</v>
@@ -2577,19 +2577,19 @@
         <v>74853</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>58697</v>
+        <v>58767</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>91590</v>
+        <v>93454</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05990430784850802</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04697479011046057</v>
+        <v>0.04703087501278982</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07329845098943036</v>
+        <v>0.07479067092497239</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>8670</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4286</v>
+        <v>4313</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16253</v>
+        <v>16541</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0141589846846218</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.007000147955384423</v>
+        <v>0.00704362709756863</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02654338498150859</v>
+        <v>0.02701439104744758</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -2627,19 +2627,19 @@
         <v>11438</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5913</v>
+        <v>6005</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19641</v>
+        <v>19605</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01794944210046695</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.009278531534969462</v>
+        <v>0.009422930040063239</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03082126645691776</v>
+        <v>0.03076547717023792</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>20</v>
@@ -2648,19 +2648,19 @@
         <v>20108</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>12236</v>
+        <v>12189</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>30996</v>
+        <v>30258</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01609203005703949</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.009792752691964399</v>
+        <v>0.009754595919732928</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0248056067169124</v>
+        <v>0.02421483793838191</v>
       </c>
     </row>
     <row r="31">
@@ -2752,19 +2752,19 @@
         <v>546576</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>522132</v>
+        <v>523285</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>569766</v>
+        <v>570425</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7438025841075336</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7105387958795988</v>
+        <v>0.712106885887333</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7753607284614695</v>
+        <v>0.7762576057348579</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>530</v>
@@ -2773,19 +2773,19 @@
         <v>555083</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>527115</v>
+        <v>528663</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>578594</v>
+        <v>579551</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7131693849104389</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6772361930803298</v>
+        <v>0.6792250947244963</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7433763607455625</v>
+        <v>0.7446060329665732</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1067</v>
@@ -2794,19 +2794,19 @@
         <v>1101659</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1066660</v>
+        <v>1064770</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1135491</v>
+        <v>1134567</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7280457368666168</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7049162352145707</v>
+        <v>0.7036669639591401</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.75040401127107</v>
+        <v>0.749793131694434</v>
       </c>
     </row>
     <row r="33">
@@ -2823,19 +2823,19 @@
         <v>160618</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>139690</v>
+        <v>138755</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>185245</v>
+        <v>184357</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2185755454767498</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1900961118052791</v>
+        <v>0.1888233371073308</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2520889307151096</v>
+        <v>0.2508803756479879</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>180</v>
@@ -2844,19 +2844,19 @@
         <v>192836</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>169866</v>
+        <v>170221</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>219983</v>
+        <v>219521</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2477547611166136</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2182434764691506</v>
+        <v>0.2186995112333323</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2826338148555884</v>
+        <v>0.2820396682637878</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>342</v>
@@ -2865,19 +2865,19 @@
         <v>353454</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>320248</v>
+        <v>323699</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>384989</v>
+        <v>388124</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2335845048899968</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.211640224435325</v>
+        <v>0.2139205572648845</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2544248424416189</v>
+        <v>0.2564970534921272</v>
       </c>
     </row>
     <row r="34">
@@ -2894,19 +2894,19 @@
         <v>27646</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>18124</v>
+        <v>18805</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>38541</v>
+        <v>38519</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03762187041571661</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0246644146093196</v>
+        <v>0.02559021161501192</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05244775111428832</v>
+        <v>0.05241790522065411</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>30</v>
@@ -2915,19 +2915,19 @@
         <v>30414</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>20867</v>
+        <v>19913</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>43111</v>
+        <v>42374</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03907585397294754</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02680988726399108</v>
+        <v>0.02558386606992153</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05538879354502906</v>
+        <v>0.05444165649159241</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>59</v>
@@ -2936,19 +2936,19 @@
         <v>58060</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>44423</v>
+        <v>45129</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>73717</v>
+        <v>74797</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03836975824338645</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02935765495454067</v>
+        <v>0.02982418847389865</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04871702953903596</v>
+        <v>0.04943030375173761</v>
       </c>
     </row>
     <row r="35">
@@ -3040,19 +3040,19 @@
         <v>2684860</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2642955</v>
+        <v>2635690</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2728616</v>
+        <v>2728037</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8261020120350301</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8132082666673971</v>
+        <v>0.810972800545828</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8395650107940882</v>
+        <v>0.8393869898028913</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2703</v>
@@ -3061,19 +3061,19 @@
         <v>2757525</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2710256</v>
+        <v>2714539</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2803989</v>
+        <v>2804326</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8203385294266066</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.806276319664555</v>
+        <v>0.8075506388636946</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8341609141896589</v>
+        <v>0.8342614265895408</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5335</v>
@@ -3082,19 +3082,19 @@
         <v>5442386</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5377395</v>
+        <v>5382809</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5504750</v>
+        <v>5504000</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8231717088889045</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8133417683983388</v>
+        <v>0.814160589373249</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8326043596598954</v>
+        <v>0.8324910371189155</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>475385</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>436145</v>
+        <v>436595</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>512932</v>
+        <v>521859</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1462708308913893</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1341969755421832</v>
+        <v>0.1343354929857836</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1578234705935006</v>
+        <v>0.1605704185221701</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>483</v>
@@ -3132,19 +3132,19 @@
         <v>505726</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>463762</v>
+        <v>465847</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>548421</v>
+        <v>544982</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1504488158806443</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1379650438087042</v>
+        <v>0.1385852924144979</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1631501523775635</v>
+        <v>0.1621271604832091</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>952</v>
@@ -3153,19 +3153,19 @@
         <v>981111</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>923781</v>
+        <v>923661</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1042122</v>
+        <v>1036692</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1483950261723096</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1397237903119491</v>
+        <v>0.1397056120939882</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1576229792870585</v>
+        <v>0.1568017882641656</v>
       </c>
     </row>
     <row r="38">
@@ -3182,19 +3182,19 @@
         <v>89789</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>72249</v>
+        <v>73604</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>107728</v>
+        <v>112933</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.0276271570735806</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02223019340301642</v>
+        <v>0.02264711734809876</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03314671858759367</v>
+        <v>0.03474811192282472</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>94</v>
@@ -3203,19 +3203,19 @@
         <v>98197</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>79264</v>
+        <v>78883</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>119194</v>
+        <v>119193</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02921265469274908</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02358026303104099</v>
+        <v>0.02346692543884271</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.03545922112115256</v>
+        <v>0.03545878890572022</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>182</v>
@@ -3224,19 +3224,19 @@
         <v>187986</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>160918</v>
+        <v>162873</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>216036</v>
+        <v>218939</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02843326493878588</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02433915310034036</v>
+        <v>0.02463487894411803</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03267589258653186</v>
+        <v>0.03311502775693384</v>
       </c>
     </row>
     <row r="39">
@@ -3572,19 +3572,19 @@
         <v>248423</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>235234</v>
+        <v>234178</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>259434</v>
+        <v>259124</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8668999425528412</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8208733753272324</v>
+        <v>0.8171896704329956</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9053224524157034</v>
+        <v>0.904242275313773</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>204</v>
@@ -3593,19 +3593,19 @@
         <v>227458</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>213324</v>
+        <v>212313</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>239992</v>
+        <v>239621</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8287865791702851</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7772865468936045</v>
+        <v>0.7736027343690907</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8744580249661524</v>
+        <v>0.8731062816091196</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>442</v>
@@ -3614,19 +3614,19 @@
         <v>475881</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>456698</v>
+        <v>457660</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>493126</v>
+        <v>491669</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.848254887802448</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8140610803236231</v>
+        <v>0.815775646976498</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8789933706384052</v>
+        <v>0.8763967316602139</v>
       </c>
     </row>
     <row r="5">
@@ -3643,19 +3643,19 @@
         <v>30809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21291</v>
+        <v>21576</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42161</v>
+        <v>43436</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1075109416459674</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07429816763493874</v>
+        <v>0.07529100777202313</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1471238249648239</v>
+        <v>0.1515759852256283</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -3664,19 +3664,19 @@
         <v>41217</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29442</v>
+        <v>29829</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55151</v>
+        <v>56449</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1501820830923196</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1072779275086915</v>
+        <v>0.1086871724800286</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2009541204110906</v>
+        <v>0.2056842033926555</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>65</v>
@@ -3685,19 +3685,19 @@
         <v>72026</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56400</v>
+        <v>58613</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>89696</v>
+        <v>89225</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1283856611122936</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1005329807508819</v>
+        <v>0.1044778033355763</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1598830214888777</v>
+        <v>0.1590432606133884</v>
       </c>
     </row>
     <row r="6">
@@ -3714,19 +3714,19 @@
         <v>7333</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2778</v>
+        <v>2888</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15912</v>
+        <v>15903</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02558911580119146</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009693825283998134</v>
+        <v>0.01007648240821929</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05552711264462141</v>
+        <v>0.05549473818322843</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -3735,19 +3735,19 @@
         <v>5772</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1964</v>
+        <v>1925</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12178</v>
+        <v>11750</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02103133773739532</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007157566902265352</v>
+        <v>0.007015434960538196</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04437166809056776</v>
+        <v>0.04281285382001541</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -3756,19 +3756,19 @@
         <v>13105</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6598</v>
+        <v>6806</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23062</v>
+        <v>22332</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0233594510852584</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01176085156792277</v>
+        <v>0.01213126012843079</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04110829658720465</v>
+        <v>0.03980625634206244</v>
       </c>
     </row>
     <row r="7">
@@ -3860,19 +3860,19 @@
         <v>384054</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>364323</v>
+        <v>363161</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>402424</v>
+        <v>405112</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7611452119711375</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7220414712499089</v>
+        <v>0.7197374579789714</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7975527009038035</v>
+        <v>0.8028784975601679</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>386</v>
@@ -3881,19 +3881,19 @@
         <v>421540</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>401578</v>
+        <v>402058</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>438867</v>
+        <v>439740</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8172380695584713</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7785373510045581</v>
+        <v>0.7794680187797481</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8508298941041402</v>
+        <v>0.8525211209244072</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>750</v>
@@ -3902,19 +3902,19 @@
         <v>805594</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>778526</v>
+        <v>775256</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>833147</v>
+        <v>830559</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7895004822499354</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7629724609634304</v>
+        <v>0.7597677013067269</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.816502752940536</v>
+        <v>0.8139661862148337</v>
       </c>
     </row>
     <row r="9">
@@ -3931,19 +3931,19 @@
         <v>94659</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>78273</v>
+        <v>76857</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>113527</v>
+        <v>113172</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.187602557151655</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1551274641986089</v>
+        <v>0.1523209048632037</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2249964588756123</v>
+        <v>0.2242931392262456</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>72</v>
@@ -3952,19 +3952,19 @@
         <v>78570</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>62915</v>
+        <v>61767</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>98441</v>
+        <v>95948</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1523223352040524</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1219731235778165</v>
+        <v>0.1197469016496942</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1908475072810624</v>
+        <v>0.1860133090900356</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>158</v>
@@ -3973,19 +3973,19 @@
         <v>173229</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>149185</v>
+        <v>149764</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>198204</v>
+        <v>200404</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1697681969167052</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1462042627929385</v>
+        <v>0.1467724166908974</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1942444744023617</v>
+        <v>0.1963999541273448</v>
       </c>
     </row>
     <row r="10">
@@ -4002,19 +4002,19 @@
         <v>25861</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16265</v>
+        <v>16743</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40985</v>
+        <v>41510</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05125223087720749</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03223445492578501</v>
+        <v>0.03318240441293543</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08122663481275968</v>
+        <v>0.0822666008619562</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -4023,19 +4023,19 @@
         <v>15701</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8645</v>
+        <v>8456</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26126</v>
+        <v>24308</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03043959523747623</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01675925935009842</v>
+        <v>0.01639410503416621</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05065010369706622</v>
+        <v>0.04712633329825275</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -4044,19 +4044,19 @@
         <v>41562</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29550</v>
+        <v>28505</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57724</v>
+        <v>57203</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0407313208333594</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02895994017217959</v>
+        <v>0.02793554720214169</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05657044787986916</v>
+        <v>0.05606023026112867</v>
       </c>
     </row>
     <row r="11">
@@ -4148,19 +4148,19 @@
         <v>310332</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>301828</v>
+        <v>302403</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>316222</v>
+        <v>316171</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9604991636416789</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.934181563334015</v>
+        <v>0.9359609412953775</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9787295417111598</v>
+        <v>0.9785717668264992</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>294</v>
@@ -4169,19 +4169,19 @@
         <v>314890</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>301597</v>
+        <v>302843</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>323055</v>
+        <v>323520</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.926271072974198</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8871678350919642</v>
+        <v>0.8908319300263168</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9502879171655411</v>
+        <v>0.9516561934474969</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>599</v>
@@ -4190,19 +4190,19 @@
         <v>625222</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>609409</v>
+        <v>610673</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>636030</v>
+        <v>635831</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9429499066292973</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.91910131936394</v>
+        <v>0.9210076876445131</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9592509917731871</v>
+        <v>0.958949845762005</v>
       </c>
     </row>
     <row r="13">
@@ -4219,19 +4219,19 @@
         <v>9855</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4948</v>
+        <v>5019</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17664</v>
+        <v>16853</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03050142800397819</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0153147892724127</v>
+        <v>0.01553500730551861</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05467197632251895</v>
+        <v>0.05216273770777768</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -4240,19 +4240,19 @@
         <v>21113</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13084</v>
+        <v>13340</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31882</v>
+        <v>31227</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0621063123309221</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03848788107003397</v>
+        <v>0.03924080760063025</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09378379748838421</v>
+        <v>0.09185766027223734</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -4261,19 +4261,19 @@
         <v>30968</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20935</v>
+        <v>21272</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44646</v>
+        <v>44106</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04670572766206797</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0315743973324992</v>
+        <v>0.03208148931131358</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06733375751849265</v>
+        <v>0.06651932876869779</v>
       </c>
     </row>
     <row r="14">
@@ -4290,19 +4290,19 @@
         <v>2908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8705</v>
+        <v>7852</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008999408354342936</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002848972293564081</v>
+        <v>0.0028774173901204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02694303841283097</v>
+        <v>0.02430385297697003</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -4311,19 +4311,19 @@
         <v>3951</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10859</v>
+        <v>11912</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01162261469487997</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002950217346576208</v>
+        <v>0.002908404320664218</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03194228125486381</v>
+        <v>0.03504133722352056</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -4332,19 +4332,19 @@
         <v>6859</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2848</v>
+        <v>2965</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14991</v>
+        <v>15702</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01034436570863469</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004295511987218155</v>
+        <v>0.004471223023214615</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02260925923511835</v>
+        <v>0.02368142383266047</v>
       </c>
     </row>
     <row r="15">
@@ -4436,19 +4436,19 @@
         <v>332612</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>318966</v>
+        <v>319403</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>342619</v>
+        <v>342927</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9051197373049356</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8679853896917871</v>
+        <v>0.8691748491151393</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9323513408526607</v>
+        <v>0.9331902239189579</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>311</v>
@@ -4457,19 +4457,19 @@
         <v>325007</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>311318</v>
+        <v>309948</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>338738</v>
+        <v>338781</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8553549214397369</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8193275172854573</v>
+        <v>0.815722461196094</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8914906577426452</v>
+        <v>0.8916047177044362</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>617</v>
@@ -4478,19 +4478,19 @@
         <v>657619</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>638228</v>
+        <v>636065</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>674578</v>
+        <v>674466</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.879821509246931</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8538777793579129</v>
+        <v>0.8509840738287148</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9025112123216104</v>
+        <v>0.9023604926582119</v>
       </c>
     </row>
     <row r="17">
@@ -4507,19 +4507,19 @@
         <v>30813</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21488</v>
+        <v>20837</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43461</v>
+        <v>43130</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08385052841964034</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05847421027742469</v>
+        <v>0.0567036583799992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1182684234531279</v>
+        <v>0.1173683447738917</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -4528,19 +4528,19 @@
         <v>39861</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29125</v>
+        <v>28944</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53587</v>
+        <v>53771</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.104905773322618</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07665192702831197</v>
+        <v>0.07617482998083797</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1410314775727089</v>
+        <v>0.141514346929965</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>66</v>
@@ -4549,19 +4549,19 @@
         <v>70674</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>55076</v>
+        <v>55699</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>87101</v>
+        <v>89585</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09455408228821127</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07368570668722588</v>
+        <v>0.07451940580473253</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.116531190393707</v>
+        <v>0.1198542896700192</v>
       </c>
     </row>
     <row r="18">
@@ -4578,19 +4578,19 @@
         <v>4053</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9384</v>
+        <v>9302</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0110297342754241</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002813603710897784</v>
+        <v>0.002778464936219898</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02553701947254482</v>
+        <v>0.02531325826932223</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -4599,19 +4599,19 @@
         <v>15100</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7744</v>
+        <v>7795</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>25752</v>
+        <v>24886</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03973930523764508</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0203804248284693</v>
+        <v>0.02051401141939316</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0677742589046465</v>
+        <v>0.06549561520657404</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>17</v>
@@ -4620,19 +4620,19 @@
         <v>19153</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11606</v>
+        <v>11800</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>30779</v>
+        <v>31836</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02562440846485772</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01552786333033488</v>
+        <v>0.01578773218895537</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04117895649723788</v>
+        <v>0.04259305625296719</v>
       </c>
     </row>
     <row r="19">
@@ -4724,19 +4724,19 @@
         <v>152570</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>139190</v>
+        <v>137128</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>165003</v>
+        <v>166269</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7175768367908512</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6546476995759181</v>
+        <v>0.6449496828952993</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7760531763910463</v>
+        <v>0.7820088443874879</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>146</v>
@@ -4745,19 +4745,19 @@
         <v>153277</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>138561</v>
+        <v>140257</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>165679</v>
+        <v>164807</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.698011909788422</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6309976303202898</v>
+        <v>0.6387213056796064</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.75448900325957</v>
+        <v>0.7505165862307464</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>285</v>
@@ -4766,19 +4766,19 @@
         <v>305847</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>284583</v>
+        <v>284078</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>323856</v>
+        <v>323743</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7076365498137551</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6584377047690074</v>
+        <v>0.6572696781541002</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7493035911945485</v>
+        <v>0.7490428183951902</v>
       </c>
     </row>
     <row r="21">
@@ -4795,19 +4795,19 @@
         <v>43345</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31982</v>
+        <v>32541</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>56113</v>
+        <v>57336</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2038640690660746</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1504209158805544</v>
+        <v>0.153049269872241</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.263912681045375</v>
+        <v>0.2696661072311771</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>47</v>
@@ -4816,19 +4816,19 @@
         <v>47233</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>34864</v>
+        <v>36192</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>60059</v>
+        <v>59636</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2150971422259502</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1587679096702084</v>
+        <v>0.1648149291237336</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.273501823982201</v>
+        <v>0.2715772943396812</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>88</v>
@@ -4837,19 +4837,19 @@
         <v>90579</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>75017</v>
+        <v>75695</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>109487</v>
+        <v>111079</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2095712189486177</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1735663290108607</v>
+        <v>0.1751340335481099</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2533187959183824</v>
+        <v>0.2570039767013831</v>
       </c>
     </row>
     <row r="22">
@@ -4866,19 +4866,19 @@
         <v>16703</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9893</v>
+        <v>9553</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26345</v>
+        <v>25454</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07855909414307428</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.046528619253967</v>
+        <v>0.04493024389498595</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1239095540678409</v>
+        <v>0.1197174153383892</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -4887,19 +4887,19 @@
         <v>19080</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11945</v>
+        <v>11783</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27876</v>
+        <v>28577</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08689094798562781</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05439516338063728</v>
+        <v>0.05365834173666915</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1269461502998825</v>
+        <v>0.1301393695200277</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -4908,19 +4908,19 @@
         <v>35784</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24707</v>
+        <v>25104</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48107</v>
+        <v>48397</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08279223123762716</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0571641562800006</v>
+        <v>0.05808306278128101</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1113052394342693</v>
+        <v>0.111976645675965</v>
       </c>
     </row>
     <row r="23">
@@ -5012,19 +5012,19 @@
         <v>259703</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>250948</v>
+        <v>250994</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>265547</v>
+        <v>265992</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9478854263839936</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9159319529865592</v>
+        <v>0.9161013745299144</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.969215850529522</v>
+        <v>0.9708395135396082</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>263</v>
@@ -5033,19 +5033,19 @@
         <v>273211</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>266652</v>
+        <v>265732</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>277057</v>
+        <v>276956</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9793832845179162</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9558730765187832</v>
+        <v>0.9525753786962489</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9931693252552576</v>
+        <v>0.9928082432607575</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>510</v>
@@ -5054,19 +5054,19 @@
         <v>532913</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>522273</v>
+        <v>522950</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>539972</v>
+        <v>540856</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9637762275689918</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9445332134250377</v>
+        <v>0.9457582097102796</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9765426428145687</v>
+        <v>0.9781413299224503</v>
       </c>
     </row>
     <row r="25">
@@ -5083,19 +5083,19 @@
         <v>10229</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5142</v>
+        <v>5029</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17861</v>
+        <v>18424</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03733571010904331</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01876861064530589</v>
+        <v>0.01835567777585511</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0651916842434848</v>
+        <v>0.06724434249897468</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -5104,19 +5104,19 @@
         <v>4021</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>965</v>
+        <v>1049</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10121</v>
+        <v>9949</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.014412769668418</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003457729828810488</v>
+        <v>0.003759200740749105</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03628169008094638</v>
+        <v>0.0356659742153955</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -5125,19 +5125,19 @@
         <v>14250</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8055</v>
+        <v>7799</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23486</v>
+        <v>23338</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0257709907694376</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0145667119600589</v>
+        <v>0.01410393119676991</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0424741963928579</v>
+        <v>0.04220757181402539</v>
       </c>
     </row>
     <row r="26">
@@ -5154,19 +5154,19 @@
         <v>4049</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1031</v>
+        <v>995</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9258</v>
+        <v>9809</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01477886350696302</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003764681866423757</v>
+        <v>0.003630238278880346</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03379014182581869</v>
+        <v>0.03580344318478243</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7664</v>
+        <v>9372</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006203945813665792</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02747468901642023</v>
+        <v>0.03359456166426712</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -5196,19 +5196,19 @@
         <v>5780</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2028</v>
+        <v>1960</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12814</v>
+        <v>12635</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01045278166157057</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003667792668832661</v>
+        <v>0.003545362833948167</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02317489302754681</v>
+        <v>0.02285014588963086</v>
       </c>
     </row>
     <row r="27">
@@ -5300,19 +5300,19 @@
         <v>633164</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>621872</v>
+        <v>621001</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>641866</v>
+        <v>641867</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9624083641628063</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9452444072928206</v>
+        <v>0.9439212251774687</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9756365547870294</v>
+        <v>0.9756369816543508</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>600</v>
@@ -5321,19 +5321,19 @@
         <v>654312</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>640340</v>
+        <v>641743</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>664586</v>
+        <v>664662</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9529917109053802</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9326415348063759</v>
+        <v>0.9346856916729366</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9679566677042271</v>
+        <v>0.9680671602334091</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1191</v>
@@ -5342,19 +5342,19 @@
         <v>1287475</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1270626</v>
+        <v>1269106</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1300990</v>
+        <v>1300571</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9575995575033144</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9450673413795263</v>
+        <v>0.9439367314451687</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9676516081933406</v>
+        <v>0.967340170439402</v>
       </c>
     </row>
     <row r="29">
@@ -5371,19 +5371,19 @@
         <v>20041</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12457</v>
+        <v>11667</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31045</v>
+        <v>31365</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03046233346897965</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01893528670938963</v>
+        <v>0.01773384197084083</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04718777908372461</v>
+        <v>0.04767435113898069</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>27</v>
@@ -5392,19 +5392,19 @@
         <v>29401</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19846</v>
+        <v>19338</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41966</v>
+        <v>41643</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04282136971277843</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02890583810886827</v>
+        <v>0.0281655064236247</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06112310937223225</v>
+        <v>0.06065231249520647</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>46</v>
@@ -5413,19 +5413,19 @@
         <v>49442</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>36467</v>
+        <v>37350</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>64785</v>
+        <v>67012</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03677372820438762</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02712346017633393</v>
+        <v>0.02777992276957318</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04818586302625234</v>
+        <v>0.04984198886453781</v>
       </c>
     </row>
     <row r="30">
@@ -5442,19 +5442,19 @@
         <v>4690</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1824</v>
+        <v>1841</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10443</v>
+        <v>9589</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.007129302368214012</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.002773165776799963</v>
+        <v>0.002798826544408199</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01587338084603644</v>
+        <v>0.01457577175749266</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9121</v>
+        <v>10494</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.004186919381841456</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01328424004773168</v>
+        <v>0.01528496591324222</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -5484,19 +5484,19 @@
         <v>7565</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2896</v>
+        <v>3723</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>15828</v>
+        <v>16230</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.00562671429229801</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002153719744105363</v>
+        <v>0.002768995306878935</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01177289683410102</v>
+        <v>0.01207178619097749</v>
       </c>
     </row>
     <row r="31">
@@ -5588,19 +5588,19 @@
         <v>660132</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>637125</v>
+        <v>638345</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>680238</v>
+        <v>679076</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8518358031360245</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8221473177683214</v>
+        <v>0.8237214095634791</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8777807460168517</v>
+        <v>0.8762810350039683</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>642</v>
@@ -5609,19 +5609,19 @@
         <v>699539</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>677556</v>
+        <v>677333</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>720368</v>
+        <v>717620</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8577744659468686</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8308188654285777</v>
+        <v>0.8305455763063554</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8833143219387364</v>
+        <v>0.8799453394645339</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1248</v>
@@ -5630,19 +5630,19 @@
         <v>1359671</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1330512</v>
+        <v>1329331</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1388751</v>
+        <v>1388014</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8548808880381947</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8365476115636256</v>
+        <v>0.8358046975638976</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8731645621181565</v>
+        <v>0.8727012891646149</v>
       </c>
     </row>
     <row r="33">
@@ -5659,19 +5659,19 @@
         <v>100763</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>83166</v>
+        <v>83140</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>123783</v>
+        <v>120731</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1300250527039505</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1073175194346994</v>
+        <v>0.1072835837643843</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1597303848815871</v>
+        <v>0.1557918575865117</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>98</v>
@@ -5680,19 +5680,19 @@
         <v>106495</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>87222</v>
+        <v>88773</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>127776</v>
+        <v>129017</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1305842127601691</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1069511846725271</v>
+        <v>0.1088539574408532</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1566787456076064</v>
+        <v>0.1582011290651768</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>192</v>
@@ -5701,19 +5701,19 @@
         <v>207258</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>179106</v>
+        <v>179767</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>235389</v>
+        <v>235836</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1303117653696333</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1126115905145217</v>
+        <v>0.1130267135052561</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1479985516556594</v>
+        <v>0.1482796603984036</v>
       </c>
     </row>
     <row r="34">
@@ -5730,19 +5730,19 @@
         <v>14057</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7833</v>
+        <v>7894</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>24334</v>
+        <v>23066</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01813914416002499</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01010774260641001</v>
+        <v>0.01018660390609624</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03140065919550333</v>
+        <v>0.0297647048919385</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>9</v>
@@ -5751,19 +5751,19 @@
         <v>9494</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4540</v>
+        <v>4391</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>17538</v>
+        <v>17506</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01164132129296235</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005566611400815431</v>
+        <v>0.005384101553296928</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02150471423762898</v>
+        <v>0.02146605166044719</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>22</v>
@@ -5772,19 +5772,19 @@
         <v>23551</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>15284</v>
+        <v>15413</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>35592</v>
+        <v>36306</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01480734659217198</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009609883145029878</v>
+        <v>0.009690665390086431</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02237807507065598</v>
+        <v>0.02282702038475211</v>
       </c>
     </row>
     <row r="35">
@@ -5876,19 +5876,19 @@
         <v>2980987</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2934362</v>
+        <v>2939088</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3014917</v>
+        <v>3022894</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8764629658483468</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8627543476040229</v>
+        <v>0.8641437245979516</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8864388158930517</v>
+        <v>0.8887844103283103</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2846</v>
@@ -5897,19 +5897,19 @@
         <v>3069236</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3028609</v>
+        <v>3026811</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3109289</v>
+        <v>3110232</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8742144934809539</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8626427593822914</v>
+        <v>0.8621306128531843</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8856229893706281</v>
+        <v>0.8858913439642641</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5642</v>
@@ -5918,19 +5918,19 @@
         <v>6050223</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5986153</v>
+        <v>5994113</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6102137</v>
+        <v>6105483</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8753208880544563</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8660515216967625</v>
+        <v>0.8672030798874192</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8828314895371306</v>
+        <v>0.8833155867439699</v>
       </c>
     </row>
     <row r="37">
@@ -5947,19 +5947,19 @@
         <v>340515</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>307168</v>
+        <v>303099</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>381172</v>
+        <v>376398</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1001173995007021</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09031288924720064</v>
+        <v>0.08911652363406175</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1120713106304537</v>
+        <v>0.1106675828955305</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>340</v>
@@ -5968,19 +5968,19 @@
         <v>367910</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>331314</v>
+        <v>333245</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>407447</v>
+        <v>411008</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1047924263523786</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09436872453441568</v>
+        <v>0.09491854348102211</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1160537377370229</v>
+        <v>0.1170680319688097</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>658</v>
@@ -5989,19 +5989,19 @@
         <v>708425</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>662706</v>
+        <v>656704</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>764970</v>
+        <v>761950</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.102492009227097</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09587756285850157</v>
+        <v>0.09500916894772769</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1106726640359554</v>
+        <v>0.1102356675510829</v>
       </c>
     </row>
     <row r="38">
@@ -6018,19 +6018,19 @@
         <v>79654</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>62532</v>
+        <v>61566</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>102304</v>
+        <v>101124</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02341963465095112</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01838549908470138</v>
+        <v>0.01810162247288775</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03007912465623724</v>
+        <v>0.02973220735286819</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>67</v>
@@ -6039,19 +6039,19 @@
         <v>73704</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>57204</v>
+        <v>55459</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>92599</v>
+        <v>94567</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02099308016666751</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01629345341056441</v>
+        <v>0.0157963331912886</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02637508663475015</v>
+        <v>0.02693565089568909</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>139</v>
@@ -6060,19 +6060,19 @@
         <v>153357</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>127161</v>
+        <v>129724</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>179532</v>
+        <v>181797</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02218710271844665</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01839718123069092</v>
+        <v>0.01876791231076783</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02597393077600156</v>
+        <v>0.02630159807995622</v>
       </c>
     </row>
     <row r="39">
@@ -6408,19 +6408,19 @@
         <v>219159</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>200488</v>
+        <v>200483</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>232493</v>
+        <v>232537</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7672248025479421</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.701863226693823</v>
+        <v>0.7018473437594862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8139040928911021</v>
+        <v>0.8140592919617703</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>204</v>
@@ -6429,19 +6429,19 @@
         <v>212569</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>197610</v>
+        <v>196407</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>226399</v>
+        <v>226119</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7497974990189176</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6970317134668849</v>
+        <v>0.6927878909357855</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7985805883268579</v>
+        <v>0.7975926364451571</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>403</v>
@@ -6450,19 +6450,19 @@
         <v>431727</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>410913</v>
+        <v>408258</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>452788</v>
+        <v>452235</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7585440512162306</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7219747484994203</v>
+        <v>0.7173089474200084</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7955482878601322</v>
+        <v>0.7945767948935767</v>
       </c>
     </row>
     <row r="5">
@@ -6479,19 +6479,19 @@
         <v>54594</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41890</v>
+        <v>41985</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>71623</v>
+        <v>70730</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1911218255037973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1466476871604509</v>
+        <v>0.1469795789148934</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2507362612344893</v>
+        <v>0.2476087062425148</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>55</v>
@@ -6500,19 +6500,19 @@
         <v>56548</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44252</v>
+        <v>44890</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70532</v>
+        <v>71396</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1994625539123721</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1560893745667961</v>
+        <v>0.1583395896215122</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2487880691750638</v>
+        <v>0.2518363456866316</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>104</v>
@@ -6521,19 +6521,19 @@
         <v>111142</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>92473</v>
+        <v>93270</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>133331</v>
+        <v>131652</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1952764435214151</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1624750107843084</v>
+        <v>0.1638745385509609</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2342626138146151</v>
+        <v>0.2313125208966645</v>
       </c>
     </row>
     <row r="6">
@@ -6550,19 +6550,19 @@
         <v>11898</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5637</v>
+        <v>6099</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20691</v>
+        <v>21231</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0416533719482606</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01973274769949699</v>
+        <v>0.02135152783227164</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07243326780323166</v>
+        <v>0.07432614216261488</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -6571,19 +6571,19 @@
         <v>14385</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7564</v>
+        <v>8265</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23858</v>
+        <v>24635</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05073994706871041</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0266797726503517</v>
+        <v>0.02915288775469854</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08415418975759521</v>
+        <v>0.08689395878496306</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -6592,19 +6592,19 @@
         <v>26283</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16737</v>
+        <v>16935</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38960</v>
+        <v>39523</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04617950526235434</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02940768456034288</v>
+        <v>0.02975448605246285</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06845319793588112</v>
+        <v>0.06944261366221746</v>
       </c>
     </row>
     <row r="7">
@@ -6696,19 +6696,19 @@
         <v>339992</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>317913</v>
+        <v>317730</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>360690</v>
+        <v>362329</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6779863739652942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6339582072695144</v>
+        <v>0.6335929972151689</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.719261831214444</v>
+        <v>0.7225302042453282</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>331</v>
@@ -6717,19 +6717,19 @@
         <v>354927</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>332536</v>
+        <v>332844</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>375296</v>
+        <v>374463</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6839008082976553</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6407567591061946</v>
+        <v>0.6413505283015037</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7231502727672783</v>
+        <v>0.7215457489618846</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>653</v>
@@ -6738,19 +6738,19 @@
         <v>694919</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>664679</v>
+        <v>667573</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>728540</v>
+        <v>726514</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6809943095084995</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6513605764922752</v>
+        <v>0.6541968412695736</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7139416727462703</v>
+        <v>0.7119561420184297</v>
       </c>
     </row>
     <row r="9">
@@ -6767,19 +6767,19 @@
         <v>99626</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>82182</v>
+        <v>82558</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>118202</v>
+        <v>119190</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1986668640137319</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1638805273505364</v>
+        <v>0.1646300169890834</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2357086510213494</v>
+        <v>0.237679830870851</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>88</v>
@@ -6788,19 +6788,19 @@
         <v>98172</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>81504</v>
+        <v>79764</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>118100</v>
+        <v>118208</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1891664562181534</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1570475312138891</v>
+        <v>0.1536959955961731</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2275639104684719</v>
+        <v>0.2277733268545687</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>184</v>
@@ -6809,19 +6809,19 @@
         <v>197799</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>172778</v>
+        <v>172358</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>224661</v>
+        <v>222343</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1938351907416309</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1693162255913854</v>
+        <v>0.1689039982664052</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2201593118556805</v>
+        <v>0.2178879227638502</v>
       </c>
     </row>
     <row r="10">
@@ -6838,19 +6838,19 @@
         <v>61855</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48179</v>
+        <v>47610</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78672</v>
+        <v>79629</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.123346762020974</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09607419584863706</v>
+        <v>0.09494093715720488</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1568816015361444</v>
+        <v>0.1587905412151967</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -6859,19 +6859,19 @@
         <v>65875</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52413</v>
+        <v>51565</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83238</v>
+        <v>84727</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1269327354841913</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1009939753639904</v>
+        <v>0.09935859231964017</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1603890494265645</v>
+        <v>0.1632592322499679</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -6880,19 +6880,19 @@
         <v>127730</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>105325</v>
+        <v>107370</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>148912</v>
+        <v>153959</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1251704997498696</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1032147694570983</v>
+        <v>0.1052184900858104</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.145928128937289</v>
+        <v>0.1508741061390065</v>
       </c>
     </row>
     <row r="11">
@@ -6984,19 +6984,19 @@
         <v>291555</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>280781</v>
+        <v>280257</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>299992</v>
+        <v>299383</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.917798488458609</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8838823545469143</v>
+        <v>0.8822330597260893</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9443585054396098</v>
+        <v>0.9424406490254906</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>306</v>
@@ -7005,19 +7005,19 @@
         <v>310055</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>298278</v>
+        <v>298569</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>318542</v>
+        <v>318798</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9219337041752921</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8869155666907437</v>
+        <v>0.8877831595399124</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9471703349724461</v>
+        <v>0.9479331871948438</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>612</v>
@@ -7026,19 +7026,19 @@
         <v>601610</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>586991</v>
+        <v>586639</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>614570</v>
+        <v>613443</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9199250327114975</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8975708710895643</v>
+        <v>0.8970334606110448</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9397429421202977</v>
+        <v>0.9380198918227165</v>
       </c>
     </row>
     <row r="13">
@@ -7055,19 +7055,19 @@
         <v>25318</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17026</v>
+        <v>17427</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35959</v>
+        <v>36584</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0796989767993026</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05359795031744478</v>
+        <v>0.05485820693569936</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1131969583616961</v>
+        <v>0.1151638710641305</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -7076,19 +7076,19 @@
         <v>22708</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14632</v>
+        <v>14252</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33792</v>
+        <v>32902</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06752168509901134</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04350667736729991</v>
+        <v>0.04237895618498581</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1004779063557302</v>
+        <v>0.09783282499847344</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -7097,19 +7097,19 @@
         <v>48026</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35489</v>
+        <v>36727</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62141</v>
+        <v>63147</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07343677635918312</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05426643241282259</v>
+        <v>0.05615883987946007</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09502029714733702</v>
+        <v>0.09655809355433972</v>
       </c>
     </row>
     <row r="14">
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3958</v>
+        <v>3791</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002502534742088442</v>
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01246012066695079</v>
+        <v>0.01193254623336445</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -7147,19 +7147,19 @@
         <v>3546</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>898</v>
+        <v>972</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9334</v>
+        <v>10956</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01054461072569663</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002671277625765399</v>
+        <v>0.002890072744636491</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02775424136922966</v>
+        <v>0.03257761033247</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -7168,19 +7168,19 @@
         <v>4341</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10258</v>
+        <v>10968</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006638190929319368</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001529330580892754</v>
+        <v>0.001536836479714463</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01568591909044246</v>
+        <v>0.01677140792409351</v>
       </c>
     </row>
     <row r="15">
@@ -7272,19 +7272,19 @@
         <v>333281</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>321557</v>
+        <v>321587</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>343343</v>
+        <v>342604</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9110482530842767</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.87900095675811</v>
+        <v>0.8790816784469569</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.938554429143921</v>
+        <v>0.9365354333756101</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>300</v>
@@ -7293,19 +7293,19 @@
         <v>324376</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>308549</v>
+        <v>309480</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>337333</v>
+        <v>337894</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8512486164716544</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8097132225495014</v>
+        <v>0.8121568551422931</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8852521913601713</v>
+        <v>0.8867227995707359</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>618</v>
@@ -7314,19 +7314,19 @@
         <v>657657</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>637842</v>
+        <v>638001</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>673763</v>
+        <v>674173</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8805384185656354</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8540086122653957</v>
+        <v>0.8542221867366239</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9021034925516882</v>
+        <v>0.9026525129657166</v>
       </c>
     </row>
     <row r="17">
@@ -7343,19 +7343,19 @@
         <v>24336</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15772</v>
+        <v>16380</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34154</v>
+        <v>35662</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06652357304737745</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04311443210609891</v>
+        <v>0.0447765975658516</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09336367751125492</v>
+        <v>0.09748509496339401</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -7364,19 +7364,19 @@
         <v>45183</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33201</v>
+        <v>33423</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59491</v>
+        <v>59209</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1185720520902694</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08712711915128858</v>
+        <v>0.08771097382562161</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1561208352701029</v>
+        <v>0.1553804506236685</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>65</v>
@@ -7385,19 +7385,19 @@
         <v>69519</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>56240</v>
+        <v>55249</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>88751</v>
+        <v>88240</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09307875920732837</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07529929882846906</v>
+        <v>0.07397266818424873</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1188292556790407</v>
+        <v>0.1181442536658411</v>
       </c>
     </row>
     <row r="18">
@@ -7414,19 +7414,19 @@
         <v>8205</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3811</v>
+        <v>4332</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16460</v>
+        <v>16708</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02242817386834582</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01041784857535859</v>
+        <v>0.01184298169863103</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04499374045482536</v>
+        <v>0.04567217929919868</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -7435,19 +7435,19 @@
         <v>11500</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6025</v>
+        <v>5862</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>20234</v>
+        <v>19705</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03017933143807621</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0158106045077025</v>
+        <v>0.01538291510042622</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05309998169336689</v>
+        <v>0.05171164685134103</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -7456,19 +7456,19 @@
         <v>19705</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12273</v>
+        <v>11540</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29470</v>
+        <v>30097</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0263828222270362</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01643274812744731</v>
+        <v>0.01545049797040418</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03945744088186101</v>
+        <v>0.04029679295554447</v>
       </c>
     </row>
     <row r="19">
@@ -7560,19 +7560,19 @@
         <v>178085</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>165773</v>
+        <v>165984</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>186834</v>
+        <v>187427</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8431211338670367</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7848303722635981</v>
+        <v>0.785830965613418</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8845422884299817</v>
+        <v>0.8873516622878428</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>190</v>
@@ -7581,19 +7581,19 @@
         <v>184938</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>172822</v>
+        <v>172691</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>194345</v>
+        <v>194262</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8460631893806277</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7906304904515263</v>
+        <v>0.7900347571678059</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8890963406426436</v>
+        <v>0.8887188196365027</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>368</v>
@@ -7602,19 +7602,19 @@
         <v>363023</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>346780</v>
+        <v>346567</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>377061</v>
+        <v>376616</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8446173719341611</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8068256120591781</v>
+        <v>0.8063309563553513</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8772785859100739</v>
+        <v>0.8762416189053346</v>
       </c>
     </row>
     <row r="21">
@@ -7631,19 +7631,19 @@
         <v>32147</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23223</v>
+        <v>22725</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>44349</v>
+        <v>43671</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1521966095862731</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1099446385467663</v>
+        <v>0.107590147729563</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2099659170520925</v>
+        <v>0.2067542464715244</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>25</v>
@@ -7652,19 +7652,19 @@
         <v>25516</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16921</v>
+        <v>17130</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>35044</v>
+        <v>37643</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1167296399577062</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07741207282632249</v>
+        <v>0.07836804213325528</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1603224204768363</v>
+        <v>0.1722113936771353</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>58</v>
@@ -7673,19 +7673,19 @@
         <v>57663</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>44359</v>
+        <v>44652</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>72430</v>
+        <v>73272</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1341592102786597</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1032073668371518</v>
+        <v>0.1038875992994563</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1685177676980845</v>
+        <v>0.1704766162817977</v>
       </c>
     </row>
     <row r="22">
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4542</v>
+        <v>5560</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004682256546690209</v>
@@ -7714,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02150521568386797</v>
+        <v>0.02632411322977454</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -7723,19 +7723,19 @@
         <v>8133</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3792</v>
+        <v>3684</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15965</v>
+        <v>14548</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03720717066166609</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01734866490143021</v>
+        <v>0.01685268723490859</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07303800137650929</v>
+        <v>0.06655296566343519</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -7744,19 +7744,19 @@
         <v>9122</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4241</v>
+        <v>4370</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16716</v>
+        <v>17602</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02122341778717925</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009867009638525855</v>
+        <v>0.01016770601932363</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03889186832150031</v>
+        <v>0.04095295315312387</v>
       </c>
     </row>
     <row r="23">
@@ -7848,19 +7848,19 @@
         <v>248225</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>239168</v>
+        <v>238262</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>254319</v>
+        <v>254632</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9433818243742373</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9089594191982477</v>
+        <v>0.9055151725867353</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9665386858218935</v>
+        <v>0.9677314272216944</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>250</v>
@@ -7869,19 +7869,19 @@
         <v>259819</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>251765</v>
+        <v>251880</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>265245</v>
+        <v>265413</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9549364263811192</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9253334606144612</v>
+        <v>0.9257571683517606</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9748799855316305</v>
+        <v>0.9754957028604659</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>494</v>
@@ -7890,19 +7890,19 @@
         <v>508045</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>497001</v>
+        <v>496604</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>517294</v>
+        <v>517035</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9492558131782527</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9286214420385143</v>
+        <v>0.9278802454582985</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9665386346568073</v>
+        <v>0.9660547827439154</v>
       </c>
     </row>
     <row r="25">
@@ -7919,19 +7919,19 @@
         <v>14898</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8804</v>
+        <v>8491</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23955</v>
+        <v>24861</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05661817562576265</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03346131417810661</v>
+        <v>0.03226857277830564</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0910405808017523</v>
+        <v>0.09448482741326472</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -7940,19 +7940,19 @@
         <v>12261</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6835</v>
+        <v>6667</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20315</v>
+        <v>20200</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04506357361888085</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02512001446836954</v>
+        <v>0.02450429713953414</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0746665393855392</v>
+        <v>0.0742428316482396</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>27</v>
@@ -7961,19 +7961,19 @@
         <v>27158</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17909</v>
+        <v>18168</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38202</v>
+        <v>38599</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05074418682174726</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03346136534319298</v>
+        <v>0.03394521725608465</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07137855796148591</v>
+        <v>0.07211975454170147</v>
       </c>
     </row>
     <row r="26">
@@ -8112,19 +8112,19 @@
         <v>520218</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>498818</v>
+        <v>498042</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>540718</v>
+        <v>541245</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8026189142264527</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7696016258148175</v>
+        <v>0.7684044841466167</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8342463269107552</v>
+        <v>0.8350607782488805</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>506</v>
@@ -8133,19 +8133,19 @@
         <v>540487</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>517853</v>
+        <v>518477</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>561773</v>
+        <v>561397</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7908474745520773</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7577294213417324</v>
+        <v>0.7586434305876217</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8219940603302734</v>
+        <v>0.8214440337981068</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>966</v>
@@ -8154,19 +8154,19 @@
         <v>1060705</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1028528</v>
+        <v>1029609</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1089906</v>
+        <v>1089781</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7965772710832145</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7724131762765334</v>
+        <v>0.7732248431384289</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8185068143997877</v>
+        <v>0.8184131620517174</v>
       </c>
     </row>
     <row r="29">
@@ -8183,19 +8183,19 @@
         <v>107661</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>88807</v>
+        <v>89006</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>128510</v>
+        <v>129163</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1661054821607237</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1370152972577767</v>
+        <v>0.1373227595453775</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1982714964989618</v>
+        <v>0.1992786331047475</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>104</v>
@@ -8204,19 +8204,19 @@
         <v>110859</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>92992</v>
+        <v>92066</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>132643</v>
+        <v>131675</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1622102871302615</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1360676827872168</v>
+        <v>0.1347123423858338</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1940856153196498</v>
+        <v>0.1926684313880825</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>198</v>
@@ -8225,19 +8225,19 @@
         <v>218520</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>191590</v>
+        <v>191944</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>248150</v>
+        <v>249054</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1641062892838663</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1438817580052497</v>
+        <v>0.1441475896469767</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1863575604542793</v>
+        <v>0.1870364240354189</v>
       </c>
     </row>
     <row r="30">
@@ -8254,19 +8254,19 @@
         <v>20271</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12227</v>
+        <v>12063</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>31489</v>
+        <v>31177</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03127560361282355</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01886404214067676</v>
+        <v>0.01861150014840117</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04858253132256861</v>
+        <v>0.04810161279301119</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -8275,19 +8275,19 @@
         <v>32082</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>22345</v>
+        <v>22701</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>44710</v>
+        <v>45405</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04694223831766126</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03269595908251312</v>
+        <v>0.03321682040962708</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06541972804849393</v>
+        <v>0.0664379079476165</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>48</v>
@@ -8296,19 +8296,19 @@
         <v>52353</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>38566</v>
+        <v>38249</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>68724</v>
+        <v>66975</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03931643963291908</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02896234441803383</v>
+        <v>0.02872434009093115</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05161065351277658</v>
+        <v>0.05029775395963219</v>
       </c>
     </row>
     <row r="31">
@@ -8400,19 +8400,19 @@
         <v>722075</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>707240</v>
+        <v>706688</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>734605</v>
+        <v>735506</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9332741288786106</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9141001144486192</v>
+        <v>0.9133870031219851</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.949468461745697</v>
+        <v>0.9506328264054934</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>694</v>
@@ -8421,19 +8421,19 @@
         <v>756816</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>739741</v>
+        <v>739153</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>772476</v>
+        <v>772906</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9230844294216207</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9022582712762516</v>
+        <v>0.901541600730136</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9421847209171695</v>
+        <v>0.9427092572405276</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1389</v>
@@ -8442,19 +8442,19 @@
         <v>1478891</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1458350</v>
+        <v>1454767</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1500105</v>
+        <v>1500490</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9280316476650398</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9151418367023312</v>
+        <v>0.9128935798796244</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9413439157922475</v>
+        <v>0.9415857763451957</v>
       </c>
     </row>
     <row r="33">
@@ -8471,19 +8471,19 @@
         <v>46121</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>34053</v>
+        <v>33205</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>60218</v>
+        <v>60110</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0596109049753338</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04401294495159329</v>
+        <v>0.04291713005340336</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.07783107113076433</v>
+        <v>0.07769171712103945</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>55</v>
@@ -8492,19 +8492,19 @@
         <v>62085</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>46951</v>
+        <v>46107</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>79424</v>
+        <v>79587</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07572469205833611</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05726635782964617</v>
+        <v>0.05623601910157159</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0968726502265041</v>
+        <v>0.09707134706464471</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>100</v>
@@ -8513,19 +8513,19 @@
         <v>108206</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>87266</v>
+        <v>87284</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>127312</v>
+        <v>130897</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.06790125999696027</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05476102322827008</v>
+        <v>0.05477243934063441</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.07989064056572379</v>
+        <v>0.08214044261574224</v>
       </c>
     </row>
     <row r="34">
@@ -8542,19 +8542,19 @@
         <v>5505</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1903</v>
+        <v>1894</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>12797</v>
+        <v>12575</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.007114966146055631</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.002459323887519674</v>
+        <v>0.002447979632766527</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01654062527260732</v>
+        <v>0.0162525255154493</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4898</v>
+        <v>3926</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.001190878520043131</v>
@@ -8575,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.005973613293244636</v>
+        <v>0.004789026277522238</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -8584,19 +8584,19 @@
         <v>6481</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2611</v>
+        <v>2685</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>14379</v>
+        <v>13296</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.004067092337999997</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001638725213093949</v>
+        <v>0.001685091136971747</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.009022840896962762</v>
+        <v>0.008343201375046433</v>
       </c>
     </row>
     <row r="35">
@@ -8688,19 +8688,19 @@
         <v>2852589</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2810117</v>
+        <v>2806883</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2893759</v>
+        <v>2895116</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8472681204208041</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8346532115517956</v>
+        <v>0.8336925588703532</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8594963494828098</v>
+        <v>0.8598992320513119</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2781</v>
@@ -8709,19 +8709,19 @@
         <v>2943986</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2900382</v>
+        <v>2899080</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2988955</v>
+        <v>2985486</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8378318538716859</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8254223785492973</v>
+        <v>0.8250520041916015</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8506297136505742</v>
+        <v>0.8496422417897304</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5503</v>
@@ -8730,19 +8730,19 @@
         <v>5796576</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5737413</v>
+        <v>5736494</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5858557</v>
+        <v>5864391</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8424491824694531</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8338507133529698</v>
+        <v>0.8337171235947731</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8514572344082809</v>
+        <v>0.8523050503603209</v>
       </c>
     </row>
     <row r="37">
@@ -8759,19 +8759,19 @@
         <v>404701</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>367490</v>
+        <v>365924</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>442384</v>
+        <v>447087</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1202030864526523</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1091508538959868</v>
+        <v>0.1086857390165421</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1313955486756643</v>
+        <v>0.1327925068678562</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>403</v>
@@ -8780,19 +8780,19 @@
         <v>433332</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>390553</v>
+        <v>394552</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>472676</v>
+        <v>473902</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1233223348256931</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1111478634521151</v>
+        <v>0.1122859382648018</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1345193953569256</v>
+        <v>0.1348683105290078</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>786</v>
@@ -8801,19 +8801,19 @@
         <v>838033</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>784850</v>
+        <v>779987</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>894357</v>
+        <v>892228</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1217960325914979</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1140666967578349</v>
+        <v>0.1133599713345743</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1299820106006906</v>
+        <v>0.1296725138332763</v>
       </c>
     </row>
     <row r="38">
@@ -8830,19 +8830,19 @@
         <v>109518</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>90400</v>
+        <v>89743</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>133270</v>
+        <v>134849</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.03252879312654365</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02685037293110675</v>
+        <v>0.02665511280698014</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03958356536776625</v>
+        <v>0.04005251622729084</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>127</v>
@@ -8851,19 +8851,19 @@
         <v>136497</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>116700</v>
+        <v>118180</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>162885</v>
+        <v>161419</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.03884581130262092</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.03321166134573175</v>
+        <v>0.03363297069464887</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04635558431173564</v>
+        <v>0.04593829070175106</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>226</v>
@@ -8872,19 +8872,19 @@
         <v>246015</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>215526</v>
+        <v>217076</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>278140</v>
+        <v>281161</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03575478493904891</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.03132356712700736</v>
+        <v>0.03154887406000335</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04042360153349987</v>
+        <v>0.04086277101947399</v>
       </c>
     </row>
     <row r="39">
@@ -9220,19 +9220,19 @@
         <v>314416</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>307885</v>
+        <v>308607</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>317602</v>
+        <v>317613</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.986109001359852</v>
+        <v>0.9861090013598521</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9656257295943037</v>
+        <v>0.9678915037679799</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9961014639768908</v>
+        <v>0.9961362673081329</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>524</v>
@@ -9241,19 +9241,19 @@
         <v>308280</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>302848</v>
+        <v>302876</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>311592</v>
+        <v>311820</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9753816311181577</v>
+        <v>0.9753816311181579</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9581945003228437</v>
+        <v>0.9582832752550365</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.985860872302647</v>
+        <v>0.9865825086346145</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>851</v>
@@ -9262,19 +9262,19 @@
         <v>622696</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>614932</v>
+        <v>615076</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>627800</v>
+        <v>627257</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9807688408612851</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.968540703449598</v>
+        <v>0.968767131198077</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9888085787513166</v>
+        <v>0.9879529986979078</v>
       </c>
     </row>
     <row r="5">
@@ -9291,19 +9291,19 @@
         <v>4429</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1243</v>
+        <v>1232</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10960</v>
+        <v>10238</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01389099864014784</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003898536023109266</v>
+        <v>0.003863732691867113</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03437427040569588</v>
+        <v>0.03210849623202019</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -9312,19 +9312,19 @@
         <v>7781</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4469</v>
+        <v>4241</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13213</v>
+        <v>13185</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02461836888184223</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01413912769735311</v>
+        <v>0.01341749136538566</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04180549967715614</v>
+        <v>0.0417167247449639</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -9333,19 +9333,19 @@
         <v>12210</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7106</v>
+        <v>7649</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19974</v>
+        <v>19830</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0192311591387149</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01119142124868335</v>
+        <v>0.01204700130209225</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03145929655040189</v>
+        <v>0.03123286880192353</v>
       </c>
     </row>
     <row r="6">
@@ -9484,19 +9484,19 @@
         <v>468210</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>450421</v>
+        <v>450399</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>482828</v>
+        <v>483163</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8906520355072919</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8568118092191769</v>
+        <v>0.8567703197816717</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9184575070118901</v>
+        <v>0.9190955105583249</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>609</v>
@@ -9505,19 +9505,19 @@
         <v>464206</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>447197</v>
+        <v>449189</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>479058</v>
+        <v>479430</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8565660276718814</v>
+        <v>0.8565660276718816</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8251818876868311</v>
+        <v>0.8288566563612495</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8839724255048987</v>
+        <v>0.8846587134284324</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>941</v>
@@ -9526,19 +9526,19 @@
         <v>932416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>907046</v>
+        <v>909351</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>953191</v>
+        <v>953683</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8733497327995658</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8495868058448549</v>
+        <v>0.851745590136932</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8928082846808187</v>
+        <v>0.8932689939472276</v>
       </c>
     </row>
     <row r="9">
@@ -9555,19 +9555,19 @@
         <v>51287</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>37893</v>
+        <v>35839</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>69098</v>
+        <v>67890</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09756145393670447</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07208244200443126</v>
+        <v>0.06817389845902193</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1314408139544395</v>
+        <v>0.1291440298959562</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>82</v>
@@ -9576,19 +9576,19 @@
         <v>65004</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>50644</v>
+        <v>50849</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>81351</v>
+        <v>80208</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1199469222233409</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09344977287239049</v>
+        <v>0.09382833789682486</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1501112081265606</v>
+        <v>0.1480028746177346</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>123</v>
@@ -9597,19 +9597,19 @@
         <v>116291</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>97595</v>
+        <v>97081</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>139777</v>
+        <v>139011</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1089244786247179</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0914128778630655</v>
+        <v>0.09093113881677312</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1309227997239917</v>
+        <v>0.1302054088614057</v>
       </c>
     </row>
     <row r="10">
@@ -9626,19 +9626,19 @@
         <v>6196</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2373</v>
+        <v>2326</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14304</v>
+        <v>13010</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01178651055600356</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00451478041187737</v>
+        <v>0.004423819531513994</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02720975638049444</v>
+        <v>0.02474824947031721</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -9647,19 +9647,19 @@
         <v>12729</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7710</v>
+        <v>7480</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18694</v>
+        <v>18904</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02348705010477762</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01422685556187383</v>
+        <v>0.0138026564577997</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03449499027957918</v>
+        <v>0.03488185987905241</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -9668,19 +9668,19 @@
         <v>18925</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12074</v>
+        <v>12035</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28625</v>
+        <v>28611</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01772578857571632</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01130908932922541</v>
+        <v>0.01127272350889735</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02681213910252704</v>
+        <v>0.0267982935755133</v>
       </c>
     </row>
     <row r="11">
@@ -9772,19 +9772,19 @@
         <v>286623</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>272923</v>
+        <v>274832</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>296184</v>
+        <v>295669</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9128914336125682</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8692551521938522</v>
+        <v>0.8753358513450415</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9433413213970242</v>
+        <v>0.9417021848051174</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>488</v>
@@ -9793,19 +9793,19 @@
         <v>320834</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>310860</v>
+        <v>309411</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>330624</v>
+        <v>330056</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9066091410652307</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8784243698042832</v>
+        <v>0.8743298766530371</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9342725911260361</v>
+        <v>0.9326665971741144</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>820</v>
@@ -9814,19 +9814,19 @@
         <v>607458</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>589195</v>
+        <v>590386</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>620551</v>
+        <v>619849</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9095625770477759</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8822171545741081</v>
+        <v>0.8840000423834088</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9291675368388759</v>
+        <v>0.9281159234521307</v>
       </c>
     </row>
     <row r="13">
@@ -9843,19 +9843,19 @@
         <v>15590</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8811</v>
+        <v>8431</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26595</v>
+        <v>25838</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04965401354323545</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02806264318477922</v>
+        <v>0.02685236245113398</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0847049444644955</v>
+        <v>0.08229376902025989</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -9864,19 +9864,19 @@
         <v>20202</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12671</v>
+        <v>13010</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28806</v>
+        <v>29770</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05708674977335716</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0358060782145499</v>
+        <v>0.03676477646413379</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08139895187460022</v>
+        <v>0.08412230381973777</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -9885,19 +9885,19 @@
         <v>35792</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26081</v>
+        <v>25461</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49231</v>
+        <v>48417</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05359246636242126</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03905232099707794</v>
+        <v>0.03812357580304081</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07371483943363231</v>
+        <v>0.07249536398717568</v>
       </c>
     </row>
     <row r="14">
@@ -9914,19 +9914,19 @@
         <v>11760</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6170</v>
+        <v>6043</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20848</v>
+        <v>20550</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03745455284419626</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01965213692118714</v>
+        <v>0.01924651009375971</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06640204474606724</v>
+        <v>0.06545017486459993</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -9935,19 +9935,19 @@
         <v>12847</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7546</v>
+        <v>7981</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20443</v>
+        <v>20951</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03630410916141219</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02132447040376024</v>
+        <v>0.02255213187194512</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05776887499998515</v>
+        <v>0.05920256176432241</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -9956,19 +9956,19 @@
         <v>24607</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16316</v>
+        <v>16920</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36498</v>
+        <v>36204</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03684495658980298</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02442974230088342</v>
+        <v>0.02533408769834868</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0546493766961627</v>
+        <v>0.05420851166647712</v>
       </c>
     </row>
     <row r="15">
@@ -10060,19 +10060,19 @@
         <v>308947</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>291188</v>
+        <v>290441</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>325093</v>
+        <v>323895</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8308076057232746</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7830529844002103</v>
+        <v>0.7810440658833535</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8742290838592193</v>
+        <v>0.8710058181765904</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>484</v>
@@ -10081,19 +10081,19 @@
         <v>347678</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>331373</v>
+        <v>331529</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>359917</v>
+        <v>361138</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8318173244578398</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7928080212496669</v>
+        <v>0.793180522866928</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8610979236160132</v>
+        <v>0.8640195474171405</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>708</v>
@@ -10102,19 +10102,19 @@
         <v>656624</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>634190</v>
+        <v>632415</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>677046</v>
+        <v>676727</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8313419389606954</v>
+        <v>0.8313419389606952</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8029390390044949</v>
+        <v>0.8006909724224733</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8571981921779342</v>
+        <v>0.8567945241641725</v>
       </c>
     </row>
     <row r="17">
@@ -10131,19 +10131,19 @@
         <v>55965</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41417</v>
+        <v>41612</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>73406</v>
+        <v>73641</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1504993361195741</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1113771570726886</v>
+        <v>0.1119001657112882</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1973997187984504</v>
+        <v>0.1980327863617907</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>85</v>
@@ -10152,19 +10152,19 @@
         <v>56289</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44828</v>
+        <v>44127</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>72208</v>
+        <v>70400</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1346715539567229</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1072511776619565</v>
+        <v>0.1055740205506012</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1727574332041316</v>
+        <v>0.1684315278252362</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>143</v>
@@ -10173,19 +10173,19 @@
         <v>112254</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>93850</v>
+        <v>92967</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>134374</v>
+        <v>135029</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1421234292509073</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1188215943500846</v>
+        <v>0.1177036114505158</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1701285458087547</v>
+        <v>0.1709583482881656</v>
       </c>
     </row>
     <row r="18">
@@ -10202,19 +10202,19 @@
         <v>6951</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3031</v>
+        <v>3128</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14983</v>
+        <v>16552</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01869305815715144</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008151478888322874</v>
+        <v>0.008411895392334685</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04029276902077857</v>
+        <v>0.04451168113727811</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -10223,19 +10223,19 @@
         <v>14007</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9052</v>
+        <v>8571</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23524</v>
+        <v>22225</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03351112158543736</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02165575716418514</v>
+        <v>0.02050623353691982</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05628149355617371</v>
+        <v>0.05317379413675208</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>30</v>
@@ -10244,19 +10244,19 @@
         <v>20958</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13834</v>
+        <v>13628</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>32299</v>
+        <v>31629</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02653463178839741</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01751484085492605</v>
+        <v>0.01725479095752779</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04089294792553896</v>
+        <v>0.0400447757530426</v>
       </c>
     </row>
     <row r="19">
@@ -10348,19 +10348,19 @@
         <v>189147</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>181562</v>
+        <v>180979</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>194915</v>
+        <v>194435</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9196862847096386</v>
+        <v>0.9196862847096388</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8828053840606456</v>
+        <v>0.8799684710079414</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9477323440154533</v>
+        <v>0.9453979278009638</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>458</v>
@@ -10369,19 +10369,19 @@
         <v>211605</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>205288</v>
+        <v>205168</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>216470</v>
+        <v>216472</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9297626585288362</v>
+        <v>0.9297626585288361</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9020097641137018</v>
+        <v>0.9014799071911009</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9511388107263242</v>
+        <v>0.9511511441215421</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>714</v>
@@ -10390,19 +10390,19 @@
         <v>400752</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>390607</v>
+        <v>390451</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>408296</v>
+        <v>408745</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9249794373419715</v>
+        <v>0.9249794373419714</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9015631157041409</v>
+        <v>0.9012040122138448</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9423917633003688</v>
+        <v>0.9434290875989448</v>
       </c>
     </row>
     <row r="21">
@@ -10419,19 +10419,19 @@
         <v>16518</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10750</v>
+        <v>11230</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>24103</v>
+        <v>24686</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08031371529036122</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05226765598454648</v>
+        <v>0.05460207219903594</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1171946159393543</v>
+        <v>0.1200315289920584</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>33</v>
@@ -10440,19 +10440,19 @@
         <v>15545</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11001</v>
+        <v>10712</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21985</v>
+        <v>21984</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06830418772824527</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04833650096356712</v>
+        <v>0.047065334673903</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09660057234624947</v>
+        <v>0.09659301513207086</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>56</v>
@@ -10461,19 +10461,19 @@
         <v>32063</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>24532</v>
+        <v>24227</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>41580</v>
+        <v>41978</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07400507057658771</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05662158407568024</v>
+        <v>0.05591857027070773</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09597135617525139</v>
+        <v>0.09689080897697612</v>
       </c>
     </row>
     <row r="22">
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2212</v>
+        <v>2089</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001933153742918564</v>
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009719583480785707</v>
+        <v>0.009180470762808276</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2315</v>
+        <v>2393</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001015492081440875</v>
@@ -10536,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.00534379499561843</v>
+        <v>0.005523718921124273</v>
       </c>
     </row>
     <row r="23">
@@ -10628,19 +10628,19 @@
         <v>258002</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>250008</v>
+        <v>249921</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>263412</v>
+        <v>263059</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9530659336984524</v>
+        <v>0.9530659336984523</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9235381696239243</v>
+        <v>0.9232170891112501</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9730503031614708</v>
+        <v>0.9717497607197222</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>433</v>
@@ -10649,19 +10649,19 @@
         <v>247644</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>240574</v>
+        <v>240562</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>252757</v>
+        <v>253357</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9414346613953331</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9145557706136681</v>
+        <v>0.914509992971644</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9608724244926095</v>
+        <v>0.9631524211292563</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>787</v>
@@ -10670,19 +10670,19 @@
         <v>505646</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>495637</v>
+        <v>495013</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>513156</v>
+        <v>513496</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9473337241540077</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9285823619176754</v>
+        <v>0.9274120681809094</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9614030568696414</v>
+        <v>0.962040431196045</v>
       </c>
     </row>
     <row r="25">
@@ -10699,19 +10699,19 @@
         <v>10735</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6114</v>
+        <v>6103</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18911</v>
+        <v>18048</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03965393007436044</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02258394440728148</v>
+        <v>0.0225444693984036</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06985727733856541</v>
+        <v>0.06666950290956312</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -10720,19 +10720,19 @@
         <v>13636</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8641</v>
+        <v>8494</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20336</v>
+        <v>20415</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05183815524239323</v>
+        <v>0.05183815524239322</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03284899058420507</v>
+        <v>0.03229051457642788</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0773080308820603</v>
+        <v>0.0776099478651661</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>37</v>
@@ -10741,19 +10741,19 @@
         <v>24371</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17218</v>
+        <v>16906</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34519</v>
+        <v>33670</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04565864993472577</v>
+        <v>0.04565864993472578</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03225839240402802</v>
+        <v>0.03167278845823455</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06467187842913147</v>
+        <v>0.06308165892360051</v>
       </c>
     </row>
     <row r="26">
@@ -10770,19 +10770,19 @@
         <v>1971</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5465</v>
+        <v>5580</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.007280136227187233</v>
+        <v>0.007280136227187234</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001862420313672371</v>
+        <v>0.001848428939943012</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02018644330145116</v>
+        <v>0.0206110287724303</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -10791,19 +10791,19 @@
         <v>1770</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5315</v>
+        <v>4780</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006727183362273762</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001898176997537332</v>
+        <v>0.001916854428933122</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02020495593832963</v>
+        <v>0.01817179407887986</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -10812,19 +10812,19 @@
         <v>3740</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1464</v>
+        <v>1510</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7884</v>
+        <v>8230</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007007625911266347</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002742181496947159</v>
+        <v>0.002828175495799084</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01477035127199684</v>
+        <v>0.01541960889194346</v>
       </c>
     </row>
     <row r="27">
@@ -10916,19 +10916,19 @@
         <v>615411</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>593886</v>
+        <v>593622</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>634994</v>
+        <v>635691</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8660133444444615</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8357238074352368</v>
+        <v>0.8353519347755832</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8935718073752181</v>
+        <v>0.8945516500911118</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>840</v>
@@ -10937,19 +10937,19 @@
         <v>672812</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>654337</v>
+        <v>653828</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>687955</v>
+        <v>689032</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.8842066800594267</v>
+        <v>0.8842066800594266</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8599271488100971</v>
+        <v>0.859257275751906</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9041066978581479</v>
+        <v>0.9055227358439499</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1357</v>
@@ -10958,19 +10958,19 @@
         <v>1288222</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1261118</v>
+        <v>1260123</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1313502</v>
+        <v>1315561</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.8754209316465605</v>
+        <v>0.8754209316465607</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.857002046025613</v>
+        <v>0.8563262225899683</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8925998756471027</v>
+        <v>0.8939989958281147</v>
       </c>
     </row>
     <row r="29">
@@ -10987,19 +10987,19 @@
         <v>57792</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>43248</v>
+        <v>43634</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>76384</v>
+        <v>75214</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08132627139914153</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0608584203916325</v>
+        <v>0.06140162083057107</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1074880678812176</v>
+        <v>0.1058414200189802</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>69</v>
@@ -11008,19 +11008,19 @@
         <v>57021</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>44644</v>
+        <v>43986</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>73948</v>
+        <v>74803</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.07493713774841505</v>
+        <v>0.07493713774841504</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0586702731929158</v>
+        <v>0.05780658207884749</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09718158502835506</v>
+        <v>0.0983059263455721</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>118</v>
@@ -11029,19 +11029,19 @@
         <v>114814</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>94180</v>
+        <v>94265</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>137425</v>
+        <v>138141</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.078022515934111</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06400082032223565</v>
+        <v>0.06405844575129872</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09338797348873366</v>
+        <v>0.09387462877468453</v>
       </c>
     </row>
     <row r="30">
@@ -11058,19 +11058,19 @@
         <v>37422</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24472</v>
+        <v>24311</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>55600</v>
+        <v>54671</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05266038415639699</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03443768793282678</v>
+        <v>0.03421033087490614</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07824118078434183</v>
+        <v>0.07693343493207898</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>39</v>
@@ -11079,19 +11079,19 @@
         <v>31088</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>22612</v>
+        <v>21859</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>45087</v>
+        <v>41130</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04085618219215837</v>
+        <v>0.04085618219215836</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02971670833738936</v>
+        <v>0.02872721641053162</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05925310051939264</v>
+        <v>0.05405237022638915</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>66</v>
@@ -11100,19 +11100,19 @@
         <v>68510</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>52218</v>
+        <v>51980</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>89785</v>
+        <v>89871</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04655655241932837</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03548535795963181</v>
+        <v>0.03532364065457533</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0610143642165706</v>
+        <v>0.06107254991516877</v>
       </c>
     </row>
     <row r="31">
@@ -11204,19 +11204,19 @@
         <v>754422</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>738390</v>
+        <v>739995</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>765994</v>
+        <v>766217</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9464457663698682</v>
+        <v>0.946445766369868</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9263332435931487</v>
+        <v>0.9283463483280052</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9609631399075353</v>
+        <v>0.9612430238571528</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>978</v>
@@ -11225,19 +11225,19 @@
         <v>764747</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>749363</v>
+        <v>750160</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>776549</v>
+        <v>777925</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9250730073082194</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9064640815819469</v>
+        <v>0.9074279856765034</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9393490408363694</v>
+        <v>0.9410142029941432</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1698</v>
@@ -11246,19 +11246,19 @@
         <v>1519168</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1498529</v>
+        <v>1497796</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1535986</v>
+        <v>1535555</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9355647374424353</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9228540536923333</v>
+        <v>0.9224026304192834</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.945921543275553</v>
+        <v>0.9456566598409526</v>
       </c>
     </row>
     <row r="33">
@@ -11275,19 +11275,19 @@
         <v>38347</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>27140</v>
+        <v>27481</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>53041</v>
+        <v>51727</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.04810769806297113</v>
+        <v>0.04810769806297112</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03404806027644355</v>
+        <v>0.03447520047485344</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06654210189045943</v>
+        <v>0.0648937193816133</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>67</v>
@@ -11296,19 +11296,19 @@
         <v>53580</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>41826</v>
+        <v>41255</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>67869</v>
+        <v>68106</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06481308494368498</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05059511872729146</v>
+        <v>0.0499035839192064</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08209774437420504</v>
+        <v>0.0823838264144104</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>104</v>
@@ -11317,19 +11317,19 @@
         <v>91927</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>75498</v>
+        <v>75607</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>110934</v>
+        <v>111610</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.05661253346436649</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04649471000940568</v>
+        <v>0.04656152427348324</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.06831745928379605</v>
+        <v>0.06873390509966891</v>
       </c>
     </row>
     <row r="34">
@@ -11346,19 +11346,19 @@
         <v>4341</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1197</v>
+        <v>1108</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10989</v>
+        <v>10174</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.005446535567160673</v>
+        <v>0.005446535567160672</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.001501783597510968</v>
+        <v>0.001389664738859729</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01378609076349165</v>
+        <v>0.01276362569918245</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -11367,19 +11367,19 @@
         <v>8361</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4174</v>
+        <v>4596</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14386</v>
+        <v>14745</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01011390774809562</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005049565067302668</v>
+        <v>0.005559148371379052</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01740188524233344</v>
+        <v>0.0178361010724462</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>15</v>
@@ -11388,19 +11388,19 @@
         <v>12703</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7532</v>
+        <v>7384</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>20414</v>
+        <v>20260</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.00782272909319813</v>
+        <v>0.007822729093198132</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.004638277474791936</v>
+        <v>0.004547118621188404</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01257202912960114</v>
+        <v>0.01247709790650521</v>
       </c>
     </row>
     <row r="35">
@@ -11492,19 +11492,19 @@
         <v>3195178</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3157007</v>
+        <v>3157222</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3231339</v>
+        <v>3230832</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.9091460252614817</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8982849205761915</v>
+        <v>0.8983459329859443</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.9194350832490683</v>
+        <v>0.9192907616231694</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4814</v>
@@ -11513,19 +11513,19 @@
         <v>3337805</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3302405</v>
+        <v>3307721</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3369432</v>
+        <v>3371829</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.9001375775062438</v>
+        <v>0.9001375775062439</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8905909359810013</v>
+        <v>0.8920245427785171</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.9086668707865232</v>
+        <v>0.9093131744155369</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7876</v>
@@ -11534,19 +11534,19 @@
         <v>6532984</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>6480530</v>
+        <v>6478668</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6581108</v>
+        <v>6581549</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.9045210527235373</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8972585606617293</v>
+        <v>0.8970008362622321</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.9111841307507393</v>
+        <v>0.911245102987158</v>
       </c>
     </row>
     <row r="37">
@@ -11563,19 +11563,19 @@
         <v>250664</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>219966</v>
+        <v>218745</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>284071</v>
+        <v>286850</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0713230402596938</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0625883926952889</v>
+        <v>0.06224107814266409</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.08082859811385922</v>
+        <v>0.08161934860454075</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>401</v>
@@ -11584,19 +11584,19 @@
         <v>289059</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>259103</v>
+        <v>259011</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>321170</v>
+        <v>318371</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.07795321410250067</v>
+        <v>0.07795321410250068</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06987468338700936</v>
+        <v>0.06984996374814932</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08661302512011532</v>
+        <v>0.08585813191033438</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>641</v>
@@ -11605,19 +11605,19 @@
         <v>539722</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>499753</v>
+        <v>498150</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>587046</v>
+        <v>588748</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.07472699760927717</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06919307230150158</v>
+        <v>0.0689711073574835</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08127923040486545</v>
+        <v>0.0815147745130665</v>
       </c>
     </row>
     <row r="38">
@@ -11634,19 +11634,19 @@
         <v>68641</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>51799</v>
+        <v>52124</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>89050</v>
+        <v>90802</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01953093447882457</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01473863682658013</v>
+        <v>0.01483112481977732</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02533794617847088</v>
+        <v>0.02583642953621962</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>111</v>
@@ -11655,19 +11655,19 @@
         <v>81242</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>66211</v>
+        <v>65903</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>97082</v>
+        <v>98829</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.02190920839125543</v>
+        <v>0.02190920839125544</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01785587925696757</v>
+        <v>0.01777264569445527</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02618101082017088</v>
+        <v>0.02665216182149488</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>170</v>
@@ -11676,19 +11676,19 @@
         <v>149883</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>124475</v>
+        <v>127279</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>174948</v>
+        <v>176670</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02075194966718564</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01723418506779883</v>
+        <v>0.01762237718052254</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02422237324322346</v>
+        <v>0.02446069087037678</v>
       </c>
     </row>
     <row r="39">
